--- a/OtherInfo/MPS_Codes_V02_24.xlsx
+++ b/OtherInfo/MPS_Codes_V02_24.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1413" uniqueCount="672">
   <si>
     <t>Tree - deciduous</t>
   </si>
@@ -2966,6 +2966,9 @@
   </si>
   <si>
     <t xml:space="preserve">Pavement Crown </t>
+  </si>
+  <si>
+    <t>Cut Square</t>
   </si>
 </sst>
 </file>
@@ -4462,6 +4465,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4503,9 +4509,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -4817,7 +4820,7 @@
   <dimension ref="B1:AG251"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="J1" zoomScale="55" zoomScaleNormal="100" zoomScaleSheetLayoutView="55" zoomScalePageLayoutView="55" workbookViewId="0">
-      <selection activeCell="U47" sqref="U47"/>
+      <selection activeCell="U37" sqref="U37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4853,37 +4856,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:33" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="259" t="s">
+      <c r="B1" s="260" t="s">
         <v>185</v>
       </c>
-      <c r="C1" s="260"/>
-      <c r="D1" s="260"/>
-      <c r="E1" s="260"/>
-      <c r="F1" s="261"/>
+      <c r="C1" s="261"/>
+      <c r="D1" s="261"/>
+      <c r="E1" s="261"/>
+      <c r="F1" s="262"/>
       <c r="G1" s="254"/>
-      <c r="H1" s="259" t="s">
+      <c r="H1" s="260" t="s">
         <v>185</v>
       </c>
-      <c r="I1" s="260"/>
-      <c r="J1" s="260"/>
-      <c r="K1" s="260"/>
-      <c r="L1" s="261"/>
-      <c r="M1" s="259" t="s">
+      <c r="I1" s="261"/>
+      <c r="J1" s="261"/>
+      <c r="K1" s="261"/>
+      <c r="L1" s="262"/>
+      <c r="M1" s="260" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="260"/>
-      <c r="O1" s="260"/>
-      <c r="P1" s="260"/>
-      <c r="Q1" s="261"/>
+      <c r="N1" s="261"/>
+      <c r="O1" s="261"/>
+      <c r="P1" s="261"/>
+      <c r="Q1" s="262"/>
       <c r="R1" s="115"/>
-      <c r="S1" s="262" t="s">
+      <c r="S1" s="263" t="s">
         <v>185</v>
       </c>
-      <c r="T1" s="263"/>
-      <c r="U1" s="263"/>
-      <c r="V1" s="263"/>
-      <c r="W1" s="263"/>
-      <c r="X1" s="264"/>
+      <c r="T1" s="264"/>
+      <c r="U1" s="264"/>
+      <c r="V1" s="264"/>
+      <c r="W1" s="264"/>
+      <c r="X1" s="265"/>
       <c r="AA1"/>
       <c r="AB1"/>
       <c r="AC1"/>
@@ -4946,10 +4949,10 @@
       <c r="T2" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="U2" s="265" t="s">
+      <c r="U2" s="266" t="s">
         <v>140</v>
       </c>
-      <c r="V2" s="266"/>
+      <c r="V2" s="267"/>
       <c r="W2" s="216" t="s">
         <v>98</v>
       </c>
@@ -6837,7 +6840,7 @@
         <v>455</v>
       </c>
       <c r="U32" s="202" t="s">
-        <v>554</v>
+        <v>671</v>
       </c>
       <c r="V32" s="199"/>
       <c r="W32" s="201" t="s">
@@ -7201,7 +7204,7 @@
       <c r="Q38" s="27">
         <v>342</v>
       </c>
-      <c r="R38" s="273"/>
+      <c r="R38" s="259"/>
       <c r="S38" s="253"/>
       <c r="T38" s="203" t="s">
         <v>551</v>
@@ -10887,14 +10890,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="271" t="s">
         <v>185</v>
       </c>
-      <c r="B1" s="271"/>
-      <c r="C1" s="271"/>
-      <c r="D1" s="271"/>
-      <c r="E1" s="271"/>
-      <c r="F1" s="272"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="273"/>
     </row>
     <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="215" t="s">
@@ -10903,10 +10906,10 @@
       <c r="B2" s="216" t="s">
         <v>99</v>
       </c>
-      <c r="C2" s="265" t="s">
+      <c r="C2" s="266" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="266"/>
+      <c r="D2" s="267"/>
       <c r="E2" s="216" t="s">
         <v>98</v>
       </c>
@@ -11063,11 +11066,11 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="24" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="267" t="s">
+      <c r="A13" s="268" t="s">
         <v>618</v>
       </c>
-      <c r="B13" s="268"/>
-      <c r="C13" s="269"/>
+      <c r="B13" s="269"/>
+      <c r="C13" s="270"/>
       <c r="D13" s="199"/>
       <c r="E13" s="201" t="s">
         <v>447</v>
